--- a/biology/Microbiologie/New_Delhi_métallo-bêta-lactamase/New_Delhi_métallo-bêta-lactamase.xlsx
+++ b/biology/Microbiologie/New_Delhi_métallo-bêta-lactamase/New_Delhi_métallo-bêta-lactamase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>New_Delhi_m%C3%A9tallo-b%C3%AAta-lactamase</t>
+          <t>New_Delhi_métallo-bêta-lactamase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La New Delhi métallo-β-lactamase est une enzyme qui confère aux bactéries qui la synthétisent une résistance aux antibiotiques de la famille des carbapénèmes, habituellement réservés au traitement des infections multirésistantes.
-Elle est codée par un gène dénommé NDM-1, situé sur un plasmide[1].
-Elle touche des entérobactéries comme les colibacilles, responsables d'un grand nombre d'infections humaines[2], le Klebsiella pneumoniae[1] ou la salmonelle[1].
-En 2009, une entérobactérie produisant une enzyme de type New Delhi métallo-bêta-lactamase est identifiée pour la première fois chez un patient suédois ayant été hospitalisé en Inde[3]. En 2010, elle est retrouvée chez des patients résidant au Royaume-Uni et dont certains ont effectué précédemment du tourisme médical pour de la chirurgie esthétique en Inde ou au Pakistan[4].
-Par la suite, six souches multirésistantes d’Acinetobacter baumannii NDM-1 originaires d'Afrique du Nord émergent en mai 2013 en France[5]. Les auteurs concluent : « L'identification de plusieurs isolats d'A. baumannii qui possèdent le gène bla NDM-1 originaires d'Afrique du nord, sans lien évident avec le sous-continent indien, suggère fortement que le clone A. baumannii NDM-1 producteur est probablement répandu en Afrique du Nord et qu'il pourrait jouer un rôle de réservoir pour NDM-1. »
+Elle est codée par un gène dénommé NDM-1, situé sur un plasmide.
+Elle touche des entérobactéries comme les colibacilles, responsables d'un grand nombre d'infections humaines, le Klebsiella pneumoniae ou la salmonelle.
+En 2009, une entérobactérie produisant une enzyme de type New Delhi métallo-bêta-lactamase est identifiée pour la première fois chez un patient suédois ayant été hospitalisé en Inde. En 2010, elle est retrouvée chez des patients résidant au Royaume-Uni et dont certains ont effectué précédemment du tourisme médical pour de la chirurgie esthétique en Inde ou au Pakistan.
+Par la suite, six souches multirésistantes d’Acinetobacter baumannii NDM-1 originaires d'Afrique du Nord émergent en mai 2013 en France. Les auteurs concluent : « L'identification de plusieurs isolats d'A. baumannii qui possèdent le gène bla NDM-1 originaires d'Afrique du nord, sans lien évident avec le sous-continent indien, suggère fortement que le clone A. baumannii NDM-1 producteur est probablement répandu en Afrique du Nord et qu'il pourrait jouer un rôle de réservoir pour NDM-1. »
 </t>
         </is>
       </c>
